--- a/doc/Work Breakdown Structure.xlsx
+++ b/doc/Work Breakdown Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\khmer-english-transliteration\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B15C314-28F1-49FE-A0BF-F3068D1E0C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B948A-B07A-4770-BC32-3689D4A04DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Task Name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Project Management</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Project Planning &amp; Scoping</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>Model Development &amp; Training</t>
-  </si>
-  <si>
-    <t>Not Started</t>
   </si>
   <si>
     <t>Model Training</t>
@@ -407,7 +401,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +450,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent4" xfId="3" builtinId="43"/>
@@ -465,13 +471,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -534,12 +540,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:D27" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:D28" headerRowDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Level" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task Name" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -746,11 +752,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -763,15 +769,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -798,13 +804,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,13 +818,13 @@
         <v>1.2</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
@@ -836,13 +842,13 @@
         <v>2.1</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,13 +856,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,56 +870,56 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -931,13 +937,13 @@
         <v>3.1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,13 +951,13 @@
         <v>3.2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,27 +965,27 @@
         <v>3.3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,55 +993,55 @@
         <v>3.5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
@@ -1053,41 +1059,41 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,14 +1101,20 @@
         <v>4.2</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
